--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H2">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I2">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J2">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N2">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P2">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q2">
-        <v>58.34716531730522</v>
+        <v>45.53231417150532</v>
       </c>
       <c r="R2">
-        <v>525.124487855747</v>
+        <v>409.7908275435479</v>
       </c>
       <c r="S2">
-        <v>0.04371762017086763</v>
+        <v>0.1230002783017158</v>
       </c>
       <c r="T2">
-        <v>0.04371762017086762</v>
+        <v>0.1230002783017158</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H3">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I3">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J3">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>190.987885</v>
       </c>
       <c r="O3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P3">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q3">
-        <v>36.12342734802389</v>
+        <v>26.19880556662722</v>
       </c>
       <c r="R3">
-        <v>325.110846132215</v>
+        <v>235.789250099645</v>
       </c>
       <c r="S3">
-        <v>0.02706610111189851</v>
+        <v>0.07077304183858819</v>
       </c>
       <c r="T3">
-        <v>0.0270661011118985</v>
+        <v>0.07077304183858819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H4">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I4">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J4">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N4">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O4">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P4">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q4">
-        <v>10.48695665508833</v>
+        <v>11.41137683099422</v>
       </c>
       <c r="R4">
-        <v>94.382609895795</v>
+        <v>102.702391478948</v>
       </c>
       <c r="S4">
-        <v>0.007857533186098555</v>
+        <v>0.03082651412645377</v>
       </c>
       <c r="T4">
-        <v>0.007857533186098551</v>
+        <v>0.03082651412645377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.168329</v>
       </c>
       <c r="I5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N5">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P5">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q5">
-        <v>74.3223273457841</v>
+        <v>79.96993079831066</v>
       </c>
       <c r="R5">
-        <v>668.900946112057</v>
+        <v>719.7293771847959</v>
       </c>
       <c r="S5">
-        <v>0.05568728591094377</v>
+        <v>0.2160295149267167</v>
       </c>
       <c r="T5">
-        <v>0.05568728591094377</v>
+        <v>0.2160295149267167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.168329</v>
       </c>
       <c r="I6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>190.987885</v>
       </c>
       <c r="O6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P6">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q6">
         <v>46.01384107712945</v>
@@ -818,10 +818,10 @@
         <v>414.124569694165</v>
       </c>
       <c r="S6">
-        <v>0.03447666421964094</v>
+        <v>0.1243010675209599</v>
       </c>
       <c r="T6">
-        <v>0.03447666421964094</v>
+        <v>0.1243010675209599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.168329</v>
       </c>
       <c r="I7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N7">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O7">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P7">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q7">
-        <v>13.35823293457167</v>
+        <v>20.04218393228844</v>
       </c>
       <c r="R7">
-        <v>120.224096411145</v>
+        <v>180.379655390596</v>
       </c>
       <c r="S7">
-        <v>0.01000888647137709</v>
+        <v>0.05414164086103936</v>
       </c>
       <c r="T7">
-        <v>0.01000888647137709</v>
+        <v>0.05414164086103936</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H8">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I8">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J8">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>102.8289443333333</v>
+        <v>110.642708</v>
       </c>
       <c r="N8">
-        <v>308.486833</v>
+        <v>331.928124</v>
       </c>
       <c r="O8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="P8">
-        <v>0.5559120396302443</v>
+        <v>0.5476418925386564</v>
       </c>
       <c r="Q8">
-        <v>609.2714353062856</v>
+        <v>77.22414759477734</v>
       </c>
       <c r="R8">
-        <v>5483.442917756571</v>
+        <v>695.0173283529961</v>
       </c>
       <c r="S8">
-        <v>0.4565071335484329</v>
+        <v>0.208612099310224</v>
       </c>
       <c r="T8">
-        <v>0.4565071335484328</v>
+        <v>0.208612099310224</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H9">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I9">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J9">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>190.987885</v>
       </c>
       <c r="O9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="P9">
-        <v>0.3441717873742007</v>
+        <v>0.3151072754333865</v>
       </c>
       <c r="Q9">
-        <v>377.2072269290723</v>
+        <v>44.43394685065723</v>
       </c>
       <c r="R9">
-        <v>3394.86504236165</v>
+        <v>399.905521655915</v>
       </c>
       <c r="S9">
-        <v>0.2826290220426612</v>
+        <v>0.1200331660738384</v>
       </c>
       <c r="T9">
-        <v>0.2826290220426612</v>
+        <v>0.1200331660738384</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H10">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I10">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J10">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.481835</v>
+        <v>27.72944133333333</v>
       </c>
       <c r="N10">
-        <v>55.445505</v>
+        <v>83.18832399999999</v>
       </c>
       <c r="O10">
-        <v>0.09991617299555509</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="P10">
-        <v>0.09991617299555508</v>
+        <v>0.1372508320279571</v>
       </c>
       <c r="Q10">
-        <v>109.5066589523833</v>
+        <v>19.35403162986622</v>
       </c>
       <c r="R10">
-        <v>985.5599305714501</v>
+        <v>174.186284668796</v>
       </c>
       <c r="S10">
-        <v>0.08204975333807946</v>
+        <v>0.05228267704046399</v>
       </c>
       <c r="T10">
-        <v>0.08204975333807943</v>
+        <v>0.05228267704046399</v>
       </c>
     </row>
   </sheetData>
